--- a/ejemplos/modelos_arbol_individual-masas_puras/Ppinea_SCentral_IFN_todo.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_puras/Ppinea_SCentral_IFN_todo.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,39 +452,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="F2">
         <v>35</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>251.1111324338793</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10.6361875</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6.570735530263065</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-3.968620596625496</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>40.56501593616566</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16.78235440649019</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>15.98931371385297</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>15.20607730447423</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>14.51567169719139</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>13.73115964721472</v>
       </c>
     </row>
@@ -495,39 +503,42 @@
         </is>
       </c>
       <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="F3">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>40.74366543152521</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7.732245</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10.125</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-4.121555138347159</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>40.52759862429878</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>16.53009119971062</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>16.22396729826334</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>15.37394754293821</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14.70569307110916</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>13.91140438190223</v>
       </c>
     </row>
@@ -543,39 +554,42 @@
         </is>
       </c>
       <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="F4">
         <v>27</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>880.2329385935758</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>16.00065430555556</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.06942101861767</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-3.779326715330351</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>40.53942243245594</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>15.4393020475072</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>14.80719795252008</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>14.01214387465424</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>13.41026420843215</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>12.70651047415656</v>
       </c>
     </row>
@@ -591,39 +605,42 @@
         </is>
       </c>
       <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>410.2660755257746</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>7.412022222222222</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.282942121052259</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-4.297560842799022</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>40.47170557775863</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>14.88835103549082</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>14.60586532771548</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>13.81436544779065</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>13.23317877313973</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>12.50936328284816</v>
       </c>
     </row>
@@ -639,39 +656,42 @@
         </is>
       </c>
       <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>318.3098861837907</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.52590625</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.477464829275686</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-4.285252595926279</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>40.44481772256826</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>16.37410754742121</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>14.76610152187309</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>13.92786877624709</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>13.38232936199749</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>12.66115192074312</v>
       </c>
     </row>
@@ -687,39 +707,42 @@
         </is>
       </c>
       <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>127.3239544735163</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.134225</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-4.296176293225446</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>40.39965317304742</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>13.77589065589923</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>14.18562183482561</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>13.42333657756696</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>12.78596058941537</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>12.2426470328899</v>
       </c>
     </row>
@@ -735,39 +758,42 @@
         </is>
       </c>
       <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>222.8169203286535</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.6701125</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.477464829275687</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-4.31850794048959</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>40.33634057936967</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>13.28011581336209</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>13.49287002868994</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>12.7598793523592</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>12.22101845608301</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>11.57719647801973</v>
       </c>
     </row>
@@ -783,39 +809,42 @@
         </is>
       </c>
       <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>212.2065907891938</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8.145706944444443</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8.141471060526129</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-3.977423876541177</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>40.35774367418899</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>14.46314793297675</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>13.78609968637046</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>13.14057209214051</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>12.46285454860783</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>11.82925043153605</v>
       </c>
     </row>
@@ -831,39 +860,42 @@
         </is>
       </c>
       <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="F10">
         <v>32</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>824.0689275647026</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>22.56645347222222</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8.500000000000002</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-3.755106196869302</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>40.48553155474628</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>15.34469704098003</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>14.59175547099696</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>13.84971452678702</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>13.25507903530706</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>12.5628584489785</v>
       </c>
     </row>
@@ -879,39 +911,42 @@
         </is>
       </c>
       <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="F11">
         <v>26</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>343.0673217758633</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9.95322638888889</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6.570735530263065</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-3.789339036842647</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>40.38620683129502</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>15.84394882027436</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>15.37190090682814</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>14.60933898102383</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>13.93082699774564</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>13.18642567724499</v>
       </c>
     </row>
@@ -927,39 +962,42 @@
         </is>
       </c>
       <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="F12">
         <v>22</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1145.915590261646</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>16.33734375</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.159154943091895</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-3.792835302726997</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>40.68346578631284</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>17.62446196078439</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>17.23119206410088</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>16.31377763845165</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>15.61165051555103</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>14.7062539609355</v>
       </c>
     </row>
@@ -975,39 +1013,42 @@
         </is>
       </c>
       <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="F13">
         <v>29</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>636.6197723675814</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6.785643749999999</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.818309886183791</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-4.331774306504656</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>42.17366785828879</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>19.30583249397521</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>18.53131762402155</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>17.65139536455735</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>16.97510724402771</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>16.15929798537017</v>
       </c>
     </row>
@@ -1023,39 +1064,42 @@
         </is>
       </c>
       <c r="C14">
-        <v>23</v>
-      </c>
-      <c r="E14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="F14">
         <v>18</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>159.1549430918953</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2.23655625</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.477464829275687</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-4.711545157917772</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>41.88944579123999</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>19.60070859471499</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>18.73653994218127</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>17.86787834410679</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>17.25704522883894</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>16.21186722927279</v>
       </c>
     </row>
@@ -1071,39 +1115,42 @@
         </is>
       </c>
       <c r="C15">
-        <v>23</v>
-      </c>
-      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>23</v>
       </c>
       <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
         <v>318.3098861837907</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3.326312499999999</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3.477464829275687</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-4.771534725571112</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>41.8795296642806</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>19.79134740578878</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>19.07427350079319</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>18.1970649580628</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>17.53798868716993</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>16.49069877313713</v>
       </c>
     </row>
@@ -1119,39 +1166,42 @@
         </is>
       </c>
       <c r="C16">
-        <v>23</v>
-      </c>
-      <c r="E16">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="F16">
         <v>21</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>63.66197723675813</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.54840625</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-4.771286072482213</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>41.87052738165251</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>20.01026006067999</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>19.05034939690076</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>18.16849811900805</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>17.51108072563564</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>16.45760160627593</v>
       </c>
     </row>
@@ -1167,39 +1217,42 @@
         </is>
       </c>
       <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="E17">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="F17">
         <v>32</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>254.6479089470325</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.66349375</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.954929658551372</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-6.305765388278552</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>37.55568620419072</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>19.35066885309991</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>17.80077627472137</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>16.67510559706484</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>16.33646930335326</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>15.37577004060708</v>
       </c>
     </row>
@@ -1215,39 +1268,42 @@
         </is>
       </c>
       <c r="C18">
-        <v>23</v>
-      </c>
-      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="F18">
         <v>18</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>254.6479089470325</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.558625</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-6.294782275428303</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>37.546424139974</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>19.35066885309991</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>17.58191442257769</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>16.46597599846228</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>16.13223132019342</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>15.24328743133474</v>
       </c>
     </row>
@@ -1263,39 +1319,42 @@
         </is>
       </c>
       <c r="C19">
-        <v>23</v>
-      </c>
-      <c r="E19">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="F19">
         <v>36</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>159.1549430918953</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3.536706249999999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.000000000000001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-6.23824737005058</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>37.54511439689877</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>19.1404386361887</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>17.50178037554351</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>16.38567634020584</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>16.08111798426401</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>15.16474578232167</v>
       </c>
     </row>
@@ -1311,39 +1370,42 @@
         </is>
       </c>
       <c r="C20">
-        <v>23</v>
-      </c>
-      <c r="E20">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="F20">
         <v>33</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>28.29421210522584</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.666322222222222</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6.250000000000001</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-6.238579669593473</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>37.53611152820469</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>18.44642490485789</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>17.64102567697392</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>16.48599680759485</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>16.15352981494174</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>15.20347260295691</v>
       </c>
     </row>
@@ -1359,39 +1421,42 @@
         </is>
       </c>
       <c r="C21">
-        <v>23</v>
-      </c>
-      <c r="E21">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="F21">
         <v>35</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>116.7136249340566</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5.438789583333333</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>8.565884242104516</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-5.584878581558628</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>37.66626345508026</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>19.34526057880157</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>17.82347884092403</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>16.74885082377654</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>16.40464805845033</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>15.4922349564152</v>
       </c>
     </row>
@@ -1407,39 +1472,42 @@
         </is>
       </c>
       <c r="C22">
-        <v>23</v>
-      </c>
-      <c r="E22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="F22">
         <v>35</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>74.27230677621782</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2.536361805555555</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5.547619047619048</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-5.584566187859013</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>37.65725947122007</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>19.34526057880157</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>17.76890148457902</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>16.69681366258478</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>16.3539532509737</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>15.44314043493635</v>
       </c>
     </row>
@@ -1455,39 +1523,42 @@
         </is>
       </c>
       <c r="C23">
-        <v>23</v>
-      </c>
-      <c r="E23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="F23">
         <v>39</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>252.6673140996667</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9.688813583333333</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>11.40652293850933</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-6.338920686444814</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>37.25907566962059</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>18.11463055109506</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>16.875</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>15.83298537571363</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>15.51568275480664</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>14.63533875787287</v>
       </c>
     </row>
@@ -1503,39 +1574,42 @@
         </is>
       </c>
       <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="E24">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="F24">
         <v>36</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>396.1189694731617</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>7.277854861111112</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>8.512832594407218</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-6.350816408802417</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>37.24132020275903</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>17.94789844982038</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>16.9134397021309</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>15.87053575229294</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>15.55616588238032</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>14.66920770543765</v>
       </c>
     </row>
@@ -1551,39 +1625,42 @@
         </is>
       </c>
       <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="E25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="F25">
         <v>28</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>488.0751588151457</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>14.71825555555555</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>9.720187897037864</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-6.226941655606185</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>37.23848206689107</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>18.04376772394048</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>16.99446579219441</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>15.9154733832246</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>15.6014780490148</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>14.73570069000172</v>
       </c>
     </row>
@@ -1599,39 +1676,42 @@
         </is>
       </c>
       <c r="C26">
-        <v>23</v>
-      </c>
-      <c r="E26">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="F26">
         <v>45</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>396.1189694731617</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>19.06167638888889</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>13.78294212105226</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-6.330198078117331</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>37.18678951474372</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>17.92831861999183</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>16.91870378834361</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>15.84621812360039</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>15.53483274821854</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>14.72052227018829</v>
       </c>
     </row>
@@ -1647,39 +1727,42 @@
         </is>
       </c>
       <c r="C27">
-        <v>23</v>
-      </c>
-      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="F27">
         <v>35</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>194.5227082234276</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>10.78746041666666</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>8.737871779603632</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-6.158704595959728</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>37.25488487746671</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>18.57655438919089</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>17.49360624003662</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>16.38942975269111</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>16.09195406078772</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>15.09147582728434</v>
       </c>
     </row>
@@ -1695,39 +1778,42 @@
         </is>
       </c>
       <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="E28">
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="F28">
         <v>31</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>127.3239544735163</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3.045106249999999</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>6.932394487827058</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-6.170640771790064</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>37.23714923472616</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>18.23880145258221</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>17.34528391593802</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>16.25418060416683</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>15.92978612317325</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>14.95926127879754</v>
       </c>
     </row>
@@ -1743,39 +1829,42 @@
         </is>
       </c>
       <c r="C29">
-        <v>23</v>
-      </c>
-      <c r="E29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="F29">
         <v>29</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>509.2958178940651</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>11.94225625</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7.477464829275687</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-6.159381041763145</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>37.23687946125012</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>18.37397749200066</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>17.32310329045108</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>16.22704506005464</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>15.89708502227055</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>15.0020338401069</v>
       </c>
     </row>
@@ -1791,39 +1880,42 @@
         </is>
       </c>
       <c r="C30">
-        <v>23</v>
-      </c>
-      <c r="E30">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="F30">
         <v>29</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>406.7292990126214</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>15.37488263888889</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>8.282942121052258</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-6.182571155600458</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>37.21941210842462</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>18.23880145258221</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>17.16235432342602</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>16.0757554145739</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>15.75441962862124</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>14.8188357568849</v>
       </c>
     </row>
@@ -1839,39 +1931,42 @@
         </is>
       </c>
       <c r="C31">
-        <v>23</v>
-      </c>
-      <c r="E31">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="F31">
         <v>45</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>332.4569922364036</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>8.721477777777777</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>8.977464829275686</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-5.37942035195396</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>37.26507519708997</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>21.12536992145852</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>19.24707916796652</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>18.05907166940059</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>17.6636288829878</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>16.6748567204409</v>
       </c>
     </row>
@@ -1887,39 +1982,42 @@
         </is>
       </c>
       <c r="C32">
-        <v>23</v>
-      </c>
-      <c r="E32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>23</v>
+      </c>
+      <c r="F32">
         <v>32</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>102.5665188814437</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>4.763094444444445</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>7.763536968418067</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-5.93421060774207</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>37.90135518449232</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>21.4928304989122</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>20.47427293064877</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>19.18325832976777</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>18.7195208719569</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>17.66146042996186</v>
       </c>
     </row>
@@ -1935,39 +2033,42 @@
         </is>
       </c>
       <c r="C33">
-        <v>23</v>
-      </c>
-      <c r="E33">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>23</v>
+      </c>
+      <c r="F33">
         <v>30</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>123.787177960363</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>4.586311805555556</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7.972613541117137</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-5.933495586866071</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>37.88335322718636</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>21.4928304989122</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>21.04376608246993</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>19.69230760975803</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>19.21517897488503</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>18.10806990224497</v>
       </c>
     </row>
@@ -1983,39 +2084,42 @@
         </is>
       </c>
       <c r="C34">
-        <v>23</v>
-      </c>
-      <c r="E34">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="F34">
         <v>25</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>190.9859317102744</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>3.365887499999999</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4.636619772367582</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-5.908657683830181</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>37.82991014282962</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>20.09366627365025</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>17.92645999790627</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>16.84388177746481</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>16.46831424093832</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>15.45008196770338</v>
       </c>
     </row>
@@ -2031,39 +2135,42 @@
         </is>
       </c>
       <c r="C35">
-        <v>23</v>
-      </c>
-      <c r="E35">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="F35">
         <v>15</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>286.4788975654116</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3.25824375</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>4.477464829275687</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-6.07999390841148</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>37.82962909422508</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>22.09639965202071</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>20.55912677531137</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>19.2475940855391</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>18.82891909952995</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>17.77777779934802</v>
       </c>
     </row>
@@ -2079,39 +2186,42 @@
         </is>
       </c>
       <c r="C36">
-        <v>23</v>
-      </c>
-      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="F36">
         <v>10</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>127.3239544735163</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.5776</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2.5</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-6.057297567748249</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>37.82906372201845</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>22.09639965202071</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>20.46594992572321</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>19.19300787834029</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>18.74141873107098</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>17.69241626818991</v>
       </c>
     </row>
@@ -2127,39 +2237,42 @@
         </is>
       </c>
       <c r="C37">
-        <v>23</v>
-      </c>
-      <c r="E37">
+        <v>41</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>265.2582384864922</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>8.790048611111111</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>6.477464829275686</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-5.987366977803969</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>37.80991857366511</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>20.27207430065295</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>19.45281633196298</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>18.2217781771375</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>17.78898679579127</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>16.80365293921022</v>
       </c>
     </row>
@@ -2175,39 +2288,42 @@
         </is>
       </c>
       <c r="C38">
-        <v>23</v>
-      </c>
-      <c r="E38">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="F38">
         <v>26</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>392.5821929600085</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>7.901047222222222</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>6.712206590789195</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>-6.012633022196023</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>37.80991857366511</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>21.93977328551535</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>20.54696791866244</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>19.27235833677576</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>18.7900354724013</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>17.77403033269313</v>
       </c>
     </row>
@@ -2223,39 +2339,42 @@
         </is>
       </c>
       <c r="C39">
-        <v>23</v>
-      </c>
-      <c r="E39">
+        <v>41</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="F39">
         <v>37</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>102.5665188814437</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>4.336714583333333</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>5.773239544735163</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>-6.001288481579679</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>37.80963007029018</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>21.93977328551535</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>20.07685497857198</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>18.82081593277245</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>18.38312338820365</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>17.34414312283422</v>
       </c>
     </row>
@@ -2271,39 +2390,42 @@
         </is>
       </c>
       <c r="C40">
-        <v>23</v>
-      </c>
-      <c r="E40">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>23</v>
+      </c>
+      <c r="F40">
         <v>20</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>258.1846854601858</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>10.1999</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>10.68309886183791</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>-5.883507937768774</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>37.76745835686337</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>18.60428035019127</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>17.06984656016002</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>16.06207570139889</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>15.70398590523584</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>14.80844209740708</v>
       </c>
     </row>
@@ -2319,39 +2441,42 @@
         </is>
       </c>
       <c r="C41">
-        <v>23</v>
-      </c>
-      <c r="E41">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>23</v>
+      </c>
+      <c r="F41">
         <v>20</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>565.8842421045167</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>15.08521597222222</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>8.570735530263065</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>-5.87216867117578</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>37.7677355040554</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>20.18357560094685</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>17.31394352736368</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>16.29155656417187</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>15.96721310435279</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>14.95952505017137</v>
       </c>
     </row>
@@ -2367,39 +2492,42 @@
         </is>
       </c>
       <c r="C42">
-        <v>23</v>
-      </c>
-      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="F42">
         <v>25</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>841.7528101304687</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>10.10974652777778</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>5.212206590789195</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>-5.795165046133679</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>37.8326605762083</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>21.95242291258295</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>20.79616881766919</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>19.49256351902237</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>19.05034322864094</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>17.98983634515829</v>
       </c>
     </row>
@@ -2415,39 +2543,42 @@
         </is>
       </c>
       <c r="C43">
-        <v>23</v>
-      </c>
-      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="F43">
         <v>40</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>360.7512043416294</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>19.11730069444445</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>11.08488263631568</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>-5.793128406846935</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>37.77864729879678</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>21.76604993934648</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>20.80239516503283</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>19.46608319160679</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>18.98712446351932</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>17.93220335359856</v>
       </c>
     </row>
@@ -2463,39 +2594,42 @@
         </is>
       </c>
       <c r="C44">
-        <v>23</v>
-      </c>
-      <c r="E44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>23</v>
+      </c>
+      <c r="F44">
         <v>30</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>297.0892271048713</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>8.599538194444445</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>6.043349071380203</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>-5.838149943088482</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>37.76856040898363</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>20.18357560094685</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>20.21951950765894</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>18.94462917972156</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>18.4903518803776</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>17.44537812795909</v>
       </c>
     </row>
@@ -2511,39 +2645,42 @@
         </is>
       </c>
       <c r="C45">
-        <v>23</v>
-      </c>
-      <c r="E45">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>23</v>
+      </c>
+      <c r="F45">
         <v>25</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>541.1268065124441</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>9.611456249999998</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>5.977464829275687</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>-5.826810059652536</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>37.76883319825827</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>21.76604993934648</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>20.56530805201821</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>19.24314929375276</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>18.80546071769828</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>17.75905648524544</v>
       </c>
     </row>
@@ -2559,39 +2696,42 @@
         </is>
       </c>
       <c r="C46">
-        <v>23</v>
-      </c>
-      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="F46">
         <v>25</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>286.4788975654116</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>6.468368749999999</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>6.136619772367582</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>-5.82646718600094</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>37.75983117312514</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>21.76604993934648</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>20.10062150833909</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>18.83167465931971</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>18.40407479724912</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>17.33445097088492</v>
       </c>
     </row>
@@ -2607,39 +2747,42 @@
         </is>
       </c>
       <c r="C47">
-        <v>23</v>
-      </c>
-      <c r="E47">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
+      <c r="F47">
         <v>38</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>445.6338406573069</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>4.47109375</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>4.318309886183791</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>-6.392468491887895</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>37.66576450314936</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>21.80033644186359</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>19.82142848703934</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>18.57704051114124</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>18.16309016592633</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>17.17923338559715</v>
       </c>
     </row>
@@ -2655,39 +2798,42 @@
         </is>
       </c>
       <c r="C48">
-        <v>23</v>
-      </c>
-      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="F48">
         <v>31</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>201.5962612497341</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>5.339499305555556</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>8.308607309866694</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>-6.506943716891421</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>37.6321972560226</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>20.32559143666308</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>18.969804620795</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>17.72115244669167</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>17.39427599296491</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>16.40129632679766</v>
       </c>
     </row>
@@ -2703,39 +2849,42 @@
         </is>
       </c>
       <c r="C49">
-        <v>23</v>
-      </c>
-      <c r="E49">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="F49">
         <v>19</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>286.4788975654116</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>3.26373125</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>5.000000000000001</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-6.495621546856407</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>37.63195732478164</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>20.92042194469142</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>19.04085257817625</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>17.7880717836207</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>17.45765126925112</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>16.49577473651604</v>
       </c>
     </row>
@@ -2751,39 +2900,42 @@
         </is>
       </c>
       <c r="C50">
-        <v>23</v>
-      </c>
-      <c r="E50">
+        <v>41</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="F50">
         <v>34</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>14.14710605261292</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.8311361111111112</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>7.5</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>-6.518565591696874</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>37.62343134725026</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>19.91723539298863</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>18.25550662071205</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>17.10836460855373</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>16.72603910405662</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>15.8142137935172</v>
       </c>
     </row>
@@ -2799,39 +2951,42 @@
         </is>
       </c>
       <c r="C51">
-        <v>23</v>
-      </c>
-      <c r="E51">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="F51">
         <v>37</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>187.4491551971212</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>11.08455902777778</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>12.63176848420903</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>-6.49592384412052</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>37.62295272459487</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>20.99895104828414</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>18.63013697059913</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>17.39481259645324</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>17.04323181964717</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>16.12794616678655</v>
       </c>
     </row>
@@ -2847,39 +3002,42 @@
         </is>
       </c>
       <c r="C52">
-        <v>23</v>
-      </c>
-      <c r="E52">
         <v>41</v>
       </c>
+      <c r="D52">
+        <v>23</v>
+      </c>
       <c r="F52">
+        <v>41</v>
+      </c>
+      <c r="G52">
         <v>272.3317915127987</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>11.10382916666667</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>9.070735530263066</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>-6.360403338106334</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>37.61098621515787</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>20.78531467003949</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>19.64766837991304</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>18.45619121680288</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>18.03843406574923</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>17.03422051172991</v>
       </c>
     </row>
@@ -2895,39 +3053,42 @@
         </is>
       </c>
       <c r="C53">
-        <v>23</v>
-      </c>
-      <c r="E53">
+        <v>41</v>
+      </c>
+      <c r="D53">
+        <v>23</v>
+      </c>
+      <c r="F53">
         <v>35</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>572.9577951308232</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>11.50559375</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>8.318309886183791</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>-6.383354705219066</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>37.60248686751927</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>20.86863444681242</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>19.48444441691583</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>18.218166072665</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>17.84615394313059</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>16.90855289150317</v>
       </c>
     </row>
@@ -2943,39 +3104,42 @@
         </is>
       </c>
       <c r="C54">
-        <v>23</v>
-      </c>
-      <c r="E54">
+        <v>41</v>
+      </c>
+      <c r="D54">
+        <v>23</v>
+      </c>
+      <c r="F54">
         <v>30</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>127.3239544735163</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>2.7641875</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>7.569014260194638</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>-6.360721705357887</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>37.60198253975001</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>20.78531467003949</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>19.61572559325474</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>18.42683640034257</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>18.0102329063365</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>17.00787402030933</v>
       </c>
     </row>
@@ -2991,39 +3155,42 @@
         </is>
       </c>
       <c r="C55">
-        <v>23</v>
-      </c>
-      <c r="E55">
+        <v>41</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+      <c r="F55">
         <v>33</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>459.7809467099199</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>11.00625902777778</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>8.159154943091895</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>-6.383985573399519</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>37.58447914258054</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>20.86863444681242</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>19.37426200882393</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>18.11516810650373</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>17.78030076201048</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>16.74575324544572</v>
       </c>
     </row>
@@ -3039,39 +3206,42 @@
         </is>
       </c>
       <c r="C56">
-        <v>23</v>
-      </c>
-      <c r="E56">
+        <v>41</v>
+      </c>
+      <c r="D56">
         <v>23</v>
       </c>
       <c r="F56">
+        <v>23</v>
+      </c>
+      <c r="G56">
         <v>222.8169203286535</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>2.7479</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>4.5</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>-6.339051683676646</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>37.57446324718754</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>19.88965125556986</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>18.53160135766001</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>17.34609345303248</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>17.05617974101255</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>16.00889387445979</v>
       </c>
     </row>
@@ -3087,39 +3257,42 @@
         </is>
       </c>
       <c r="C57">
-        <v>23</v>
-      </c>
-      <c r="E57">
+        <v>41</v>
+      </c>
+      <c r="D57">
+        <v>23</v>
+      </c>
+      <c r="F57">
         <v>16</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>254.6479089470325</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>3.1222875</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>5.318309886183791</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>-6.316427980638724</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>37.57395074758774</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>19.35066885309991</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>18.42670533184381</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>17.24265227418888</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>16.92501038549128</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>15.91599898489683</v>
       </c>
     </row>
@@ -3135,39 +3308,42 @@
         </is>
       </c>
       <c r="C58">
-        <v>23</v>
-      </c>
-      <c r="E58">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="F58">
         <v>30</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>307.699556644331</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>9.962803472222221</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>6.353677651315324</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>-5.394048008534433</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>41.76917116773947</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>22.74129078563595</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>21.38572181124168</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>20.4787961295552</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>19.86954333535198</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>18.81966125689125</v>
       </c>
     </row>
@@ -3183,39 +3359,42 @@
         </is>
       </c>
       <c r="C59">
-        <v>23</v>
-      </c>
-      <c r="E59">
+        <v>49</v>
+      </c>
+      <c r="D59">
+        <v>23</v>
+      </c>
+      <c r="F59">
         <v>30</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>353.677651315323</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>12.27857847222222</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>6.442097064144154</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-5.382027662751683</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>41.76942115807644</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>22.74129078563595</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>21.18140512782264</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>20.2419491268869</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>19.68000005083084</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>18.59764094642624</v>
       </c>
     </row>
@@ -3231,39 +3410,42 @@
         </is>
       </c>
       <c r="C60">
-        <v>23</v>
-      </c>
-      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="F60">
         <v>25</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>498.6854883546054</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>11.78618055555556</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>7.14147106052613</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>-4.769778786806421</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>40.93384388118999</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>16.74901785404245</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>16.19893426820585</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>15.35075647328904</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>14.71849870479316</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>13.82651393589892</v>
       </c>
     </row>
@@ -3279,39 +3461,42 @@
         </is>
       </c>
       <c r="C61">
-        <v>23</v>
-      </c>
-      <c r="E61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>23</v>
+      </c>
+      <c r="F61">
         <v>26</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>222.8169203286535</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>4.31463125</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>5.795774715459476</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>-0.9534036250329155</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>42.19015658897688</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>21.33073548717843</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>20.99443780708992</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>20.09192386441742</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>19.18923248306343</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>18.26781519867719</v>
       </c>
     </row>
@@ -3327,39 +3512,42 @@
         </is>
       </c>
       <c r="C62">
-        <v>23</v>
-      </c>
-      <c r="E62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>23</v>
+      </c>
+      <c r="F62">
         <v>28</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>763.9437268410976</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>20.66824305555555</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>9.06103295394597</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>-1.864181774108924</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>41.36518534796721</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>17.75851839414379</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>17.04166674844789</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>16.142592825031</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>15.4218443751717</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>14.43896231724573</v>
       </c>
     </row>
@@ -3375,39 +3563,42 @@
         </is>
       </c>
       <c r="C63">
-        <v>23</v>
-      </c>
-      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>23</v>
+      </c>
+      <c r="F63">
         <v>21</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>742.7230677621782</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>12.71569097222222</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>5.995148711841453</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-3.913871473672218</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>41.73644771138387</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>16.61873358198013</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>15.29039069578835</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>14.5665925048166</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>13.98330554814217</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>13.20705422887215</v>
       </c>
     </row>
@@ -3423,42 +3614,45 @@
         </is>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D64">
+        <v>23</v>
+      </c>
+      <c r="E64">
         <v>2000</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>45</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>286.4788975654116</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>16.24997777777778</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>8.212206590789194</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>-3.968620596625496</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>40.56501593616566</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>16.78235440649019</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>15.98931371385297</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>15.20607730447423</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>14.51567169719139</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>13.73115964721472</v>
       </c>
     </row>
@@ -3474,42 +3668,45 @@
         </is>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D65">
+        <v>23</v>
+      </c>
+      <c r="E65">
         <v>2000</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>25</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>109.6400719077501</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>2.786217361111111</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>4.959780946709921</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>-4.285252595926279</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>40.44481772256826</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>16.37410754742121</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>14.76610152187309</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>13.92786877624709</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>13.38232936199749</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>12.66115192074312</v>
       </c>
     </row>
@@ -3525,42 +3722,45 @@
         </is>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D66">
+        <v>23</v>
+      </c>
+      <c r="E66">
         <v>2000</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>25</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>63.66197723675813</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.9117062499999997</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>3.5</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>-4.296176293225446</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>40.39965317304742</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>13.77589065589923</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>14.18562183482561</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>13.42333657756696</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>12.78596058941537</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>12.2426470328899</v>
       </c>
     </row>
@@ -3576,42 +3776,45 @@
         </is>
       </c>
       <c r="C67">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D67">
+        <v>23</v>
+      </c>
+      <c r="E67">
         <v>2000</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>50</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>127.3239544735163</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>9.196897222222223</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>8.419561893419841</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>-3.989198414370823</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>40.35764355868333</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>14.46314793297675</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>13.79704623755672</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>13.15068488228298</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>12.47221379407657</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>11.83793308748122</v>
       </c>
     </row>
@@ -3627,42 +3830,45 @@
         </is>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D68">
+        <v>23</v>
+      </c>
+      <c r="E68">
         <v>2000</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>40</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>311.2363331574842</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>13.36409583333333</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>8.641471060526131</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>-3.977423876541177</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>40.35774367418899</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>14.46314793297675</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>13.78609968637046</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>13.14057209214051</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>12.46285454860783</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>11.82925043153605</v>
       </c>
     </row>
@@ -3678,42 +3884,45 @@
         </is>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D69">
+        <v>23</v>
+      </c>
+      <c r="E69">
         <v>2000</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>40</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>926.6354464461461</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>27.89696736111111</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>9.608325560262356</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>-3.755106196869302</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>40.48553155474628</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>15.34469704098003</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>14.59175547099696</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>13.84971452678702</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>13.25507903530706</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>12.5628584489785</v>
       </c>
     </row>
@@ -3729,42 +3938,45 @@
         </is>
       </c>
       <c r="C70">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70">
         <v>2003</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>30</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>983.2238706565978</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>15.48560277777778</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>8.795774715459476</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>-4.293871979921921</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>42.68741553114445</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>27.58512759446833</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>26.70697150724342</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>25.46395570223421</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>24.48713297371474</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>23.64869690201827</v>
       </c>
     </row>
@@ -3780,42 +3992,45 @@
         </is>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D71">
+        <v>23</v>
+      </c>
+      <c r="E71">
         <v>2007</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>44</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>28.29421210522584</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>2.365161111111111</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>8.35</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>-6.238579669593473</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>37.53611152820469</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>18.44642490485789</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>17.64102567697392</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>16.48599680759485</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>16.15352981494174</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>15.20347260295691</v>
       </c>
     </row>
@@ -3831,42 +4046,45 @@
         </is>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72">
         <v>2007</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>30</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>99.02974236829044</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>7.282941666666667</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>11.67142857142857</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>-5.584878581558628</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>37.66626345508026</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>19.34526057880157</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>17.82347884092403</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>16.74885082377654</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>16.40464805845033</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>15.4922349564152</v>
       </c>
     </row>
@@ -3882,42 +4100,45 @@
         </is>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D73">
+        <v>23</v>
+      </c>
+      <c r="E73">
         <v>2007</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>30</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>102.5665188814437</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>5.761113888888889</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>8.362848460390698</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>-5.584566187859013</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>37.65725947122007</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>19.34526057880157</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>17.76890148457902</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>16.69681366258478</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>16.3539532509737</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>15.44314043493635</v>
       </c>
     </row>
@@ -3933,42 +4154,45 @@
         </is>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D74">
+        <v>23</v>
+      </c>
+      <c r="E74">
         <v>2007</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>30</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>187.4491551971212</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>8.894475694444445</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>9.78197186342055</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>-5.584566187859013</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>37.65725947122007</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>19.34526057880157</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>17.76890148457902</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>16.69681366258478</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>16.3539532509737</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>15.44314043493635</v>
       </c>
     </row>
@@ -3984,42 +4208,45 @@
         </is>
       </c>
       <c r="C75">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D75">
+        <v>23</v>
+      </c>
+      <c r="E75">
         <v>2007</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>50</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>171.3214542971425</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>8.319398722222223</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>12.45044147168177</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>-6.338920686444814</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>37.25907566962059</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>18.11463055109506</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>16.875</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>15.83298537571363</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>15.51568275480664</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>14.63533875787287</v>
       </c>
     </row>
@@ -4035,42 +4262,45 @@
         </is>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D76">
+        <v>23</v>
+      </c>
+      <c r="E76">
         <v>2007</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>47</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>300.6260036180245</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>11.70292847222222</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>11.93564951473588</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>-6.350816408802417</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>37.24132020275903</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>17.94789844982038</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>16.9134397021309</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>15.87053575229294</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>15.55616588238032</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>14.66920770543765</v>
       </c>
     </row>
@@ -4086,42 +4316,45 @@
         </is>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D77">
+        <v>23</v>
+      </c>
+      <c r="E77">
         <v>2007</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>39</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>286.4788975654116</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>13.66057708333333</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>14.02982796894562</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>-6.226941655606185</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>37.23848206689107</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>18.04376772394048</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>16.99446579219441</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>15.9154733832246</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>15.6014780490148</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>14.73570069000172</v>
       </c>
     </row>
@@ -4137,42 +4370,45 @@
         </is>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D78">
+        <v>23</v>
+      </c>
+      <c r="E78">
         <v>2007</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>56</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>104.1227005472311</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>8.496799888888889</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>14.08932597353448</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>-6.330198078117331</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>37.18678951474372</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>17.92831861999183</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>16.91870378834361</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>15.84621812360039</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>15.53483274821854</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>14.72052227018829</v>
       </c>
     </row>
@@ -4188,42 +4424,45 @@
         </is>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D79">
+        <v>23</v>
+      </c>
+      <c r="E79">
         <v>2007</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>17</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>668.4507609859604</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>11.0835</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>7.122816920328653</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>-6.169629887215379</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>37.26415759684136</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>18.3309285241729</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>17.21332393030731</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>16.12661392795173</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>15.83174013084711</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>14.90259756025465</v>
       </c>
     </row>
@@ -4239,42 +4478,45 @@
         </is>
       </c>
       <c r="C80">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D80">
+        <v>23</v>
+      </c>
+      <c r="E80">
         <v>2007</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>46</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>161.8428932418918</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>13.82380211111111</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>12.2664477413132</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>-6.158704595959728</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>37.25488487746671</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>18.57655438919089</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>17.49360624003662</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>16.38942975269111</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>16.09195406078772</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>15.09147582728434</v>
       </c>
     </row>
@@ -4290,42 +4532,45 @@
         </is>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D81">
+        <v>23</v>
+      </c>
+      <c r="E81">
         <v>2007</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>35</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>365.8441625205701</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>25.2026685</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>14.21123633315749</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>-6.158704595959728</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>37.25488487746671</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>18.57655438919089</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>17.49360624003662</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>16.38942975269111</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>16.09195406078772</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>15.09147582728434</v>
       </c>
     </row>
@@ -4341,42 +4586,45 @@
         </is>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D82">
+        <v>23</v>
+      </c>
+      <c r="E82">
         <v>2007</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>42</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>88.41941282883074</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>3.821702777777778</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>8.712</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>-6.170640771790064</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>37.23714923472616</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>18.23880145258221</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>17.34528391593802</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>16.25418060416683</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>15.92978612317325</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>14.95926127879754</v>
       </c>
     </row>
@@ -4392,42 +4640,45 @@
         </is>
       </c>
       <c r="C83">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D83">
+        <v>23</v>
+      </c>
+      <c r="E83">
         <v>2007</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>40</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>212.2065907891938</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>8.504824305555555</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>10.95624417019677</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>-6.159381041763145</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>37.23687946125012</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>18.37397749200066</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>17.32310329045108</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>16.22704506005464</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>15.89708502227055</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>15.0020338401069</v>
       </c>
     </row>
@@ -4443,42 +4694,45 @@
         </is>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D84">
+        <v>23</v>
+      </c>
+      <c r="E84">
         <v>2007</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>40</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>212.2065907891938</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>13.67166666666667</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>12.02441318157839</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>-6.182571155600458</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>37.21941210842462</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>18.23880145258221</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>17.16235432342602</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>16.0757554145739</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>15.75441962862124</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>14.8188357568849</v>
       </c>
     </row>
@@ -4494,42 +4748,45 @@
         </is>
       </c>
       <c r="C85">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D85">
+        <v>23</v>
+      </c>
+      <c r="E85">
         <v>2007</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>10</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>541.1268065124441</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>3.839675</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>4.122816920328653</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>-5.184467002946038</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>37.15167766250519</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>23.39011353117692</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>20.96225021464272</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>19.70278463434434</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>19.22989803320711</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>18.12080538604159</v>
       </c>
     </row>
@@ -4545,42 +4802,45 @@
         </is>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D86">
+        <v>23</v>
+      </c>
+      <c r="E86">
         <v>2007</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>25</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>481.0016057888392</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>13.15333194444444</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>8.502159760458412</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>-6.046308703523398</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>37.81977847734281</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>22.09639965202071</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>20.29175353551242</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>18.99230442567143</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>18.57998285093983</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>17.50246370776319</v>
       </c>
     </row>
@@ -4596,42 +4856,45 @@
         </is>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D87">
+        <v>23</v>
+      </c>
+      <c r="E87">
         <v>2007</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>45</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>116.7136249340566</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>6.956503472222223</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>8.797652726313551</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>-5.93421060774207</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>37.90135518449232</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>21.4928304989122</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>20.47427293064877</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>19.18325832976777</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>18.7195208719569</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>17.66146042996186</v>
       </c>
     </row>
@@ -4647,42 +4910,45 @@
         </is>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D88">
+        <v>23</v>
+      </c>
+      <c r="E88">
         <v>2007</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>65</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>275.8685680259519</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>14.31461388888889</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>10.42635369684181</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>-5.767407160556045</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>37.39179967202274</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>20.11680137018335</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>18.73986628348093</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>17.53576883123246</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>17.19666978856276</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>16.15758232392186</v>
       </c>
     </row>
@@ -4698,42 +4964,45 @@
         </is>
       </c>
       <c r="C89">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D89">
+        <v>23</v>
+      </c>
+      <c r="E89">
         <v>2007</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>30</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>218.4313174523435</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>22.50166744444444</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>15.81535903370472</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>-5.469854524794482</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>37.27223355432775</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>21.09793762435901</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>19.27586208217162</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>18.06306938838562</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>17.64560106778593</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>16.65306121368599</v>
       </c>
     </row>
@@ -4749,42 +5018,45 @@
         </is>
       </c>
       <c r="C90">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D90">
+        <v>23</v>
+      </c>
+      <c r="E90">
         <v>2007</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>40</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>141.4710605261292</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>8.291469444444445</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>8.935649514735875</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>-5.933495586866071</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>37.88335322718636</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>21.4928304989122</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>21.04376608246993</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>19.69230760975803</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>19.21517897488503</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>18.10806990224497</v>
       </c>
     </row>
@@ -4800,42 +5072,45 @@
         </is>
       </c>
       <c r="C91">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D91">
+        <v>23</v>
+      </c>
+      <c r="E91">
         <v>2007</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>30</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>183.9123786839679</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>6.979763194444445</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>8.659718442300575</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>-5.933495586866071</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>37.88335322718636</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>21.4928304989122</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>21.04376608246993</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>19.69230760975803</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>19.21517897488503</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>18.10806990224497</v>
       </c>
     </row>
@@ -4851,42 +5126,45 @@
         </is>
       </c>
       <c r="C92">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D92">
+        <v>23</v>
+      </c>
+      <c r="E92">
         <v>2007</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>15</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>318.3098861837907</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>2.7228375</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>3.736619772367581</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>-5.909719336118894</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>37.85691389934806</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>22.29549074020141</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>21.0387270698239</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>19.68708879410016</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>19.13941483348153</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>18.10615712474691</v>
       </c>
     </row>
@@ -4902,42 +5180,45 @@
         </is>
       </c>
       <c r="C93">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D93">
+        <v>23</v>
+      </c>
+      <c r="E93">
         <v>2007</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>26</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>1273.239544735163</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>16.22356875</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>14.5</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>-6.436845084022611</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>37.69377039631514</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>22.73916070398276</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>20.39639635258667</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>19.090108690783</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>18.62934628905639</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>17.60273966135037</v>
       </c>
     </row>
@@ -4953,42 +5234,45 @@
         </is>
       </c>
       <c r="C94">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D94">
+        <v>23</v>
+      </c>
+      <c r="E94">
         <v>2007</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>20</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>127.3239544735163</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>2.59824375</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>6.172957795130824</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>-6.426136923663489</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>37.67551534945939</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>22.73916070398276</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>21.65578009596629</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>20.30577403168002</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>19.81908367501828</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>18.69860053171519</v>
       </c>
     </row>
@@ -5004,42 +5288,45 @@
         </is>
       </c>
       <c r="C95">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D95">
+        <v>23</v>
+      </c>
+      <c r="E95">
         <v>2007</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>30</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>123.787177960363</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>3.738463888888889</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>7.307692307692308</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>-6.41480888564194</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>37.67526742289132</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>21.95460352503399</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>21.02216197208945</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>19.69938099840598</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>19.22085444002141</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>18.13653939121895</v>
       </c>
     </row>
@@ -5055,42 +5342,45 @@
         </is>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D96">
+        <v>23</v>
+      </c>
+      <c r="E96">
         <v>2007</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>16</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>159.1549430918953</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>1.161225</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>4.341126806512444</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>-6.358170795150561</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>37.67401149120963</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>22.12078963038489</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>20.29279962025583</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>18.96028036855084</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>18.53042488277493</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>17.53937854674239</v>
       </c>
     </row>
@@ -5106,42 +5396,45 @@
         </is>
       </c>
       <c r="C97">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D97">
+        <v>23</v>
+      </c>
+      <c r="E97">
         <v>2007</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>21</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>45.97809467099199</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>1.292111111111111</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>5.661538461538461</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>-6.256231241729407</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>37.67168237227789</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>20.89836303266389</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>18.96486377240623</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>17.7486463814015</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>17.38058537454819</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>16.35910215360865</v>
       </c>
     </row>
@@ -5157,42 +5450,45 @@
         </is>
       </c>
       <c r="C98">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D98">
+        <v>23</v>
+      </c>
+      <c r="E98">
         <v>2007</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>36</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>268.7950149996454</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>7.567802777777778</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>6.470391276249379</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>-5.908657683830181</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>37.82991014282962</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>20.09366627365025</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>17.92645999790627</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>16.84388177746481</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>16.46831424093832</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>15.45008196770338</v>
       </c>
     </row>
@@ -5208,42 +5504,45 @@
         </is>
       </c>
       <c r="C99">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D99">
+        <v>23</v>
+      </c>
+      <c r="E99">
         <v>2007</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>26</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>45.97809467099199</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>1.819802777777778</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>8.338461538461539</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>-6.07999390841148</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>37.82962909422508</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>22.09639965202071</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>20.55912677531137</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>19.2475940855391</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>18.82891909952995</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>17.77777779934802</v>
       </c>
     </row>
@@ -5259,42 +5558,45 @@
         </is>
       </c>
       <c r="C100">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D100">
+        <v>23</v>
+      </c>
+      <c r="E100">
         <v>2007</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>25</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>244.0375794075728</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>12.70543055555556</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>9.276150317630293</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>-5.987366977803969</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>37.80991857366511</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>20.27207430065295</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>19.45281633196298</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>18.2217781771375</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>17.78898679579127</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>16.80365293921022</v>
       </c>
     </row>
@@ -5310,42 +5612,45 @@
         </is>
       </c>
       <c r="C101">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D101">
+        <v>23</v>
+      </c>
+      <c r="E101">
         <v>2007</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>37</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>427.9499580915408</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>13.65243819444444</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>9.138560287631002</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>-6.012633022196023</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>37.80991857366511</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>21.93977328551535</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>20.54696791866244</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>19.27235833677576</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>18.7900354724013</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>17.77403033269313</v>
       </c>
     </row>
@@ -5361,42 +5666,45 @@
         </is>
       </c>
       <c r="C102">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D102">
+        <v>23</v>
+      </c>
+      <c r="E102">
         <v>2007</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>25</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>99.02974236829044</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>6.7081</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>8.142857142857144</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>-6.001288481579679</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>37.80963007029018</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>21.93977328551535</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>20.07685497857198</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>18.82081593277245</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>18.38312338820365</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>17.34414312283422</v>
       </c>
     </row>
@@ -5412,42 +5720,45 @@
         </is>
       </c>
       <c r="C103">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D103">
+        <v>23</v>
+      </c>
+      <c r="E103">
         <v>2007</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>40</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>222.8169203286535</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>13.17549861111111</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>12.04744934710204</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>-5.883507937768774</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>37.76745835686337</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>18.60428035019127</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>17.06984656016002</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>16.06207570139889</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>15.70398590523584</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>14.80844209740708</v>
       </c>
     </row>
@@ -5463,42 +5774,45 @@
         </is>
       </c>
       <c r="C104">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D104">
+        <v>23</v>
+      </c>
+      <c r="E104">
         <v>2007</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>40</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>183.9123786839679</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>7.037318749999999</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>8.254303654933349</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>-5.87216867117578</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>37.7677355040554</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>20.18357560094685</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>17.31394352736368</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>16.29155656417187</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>15.96721310435279</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>14.95952505017137</v>
       </c>
     </row>
@@ -5514,42 +5828,45 @@
         </is>
       </c>
       <c r="C105">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D105">
+        <v>23</v>
+      </c>
+      <c r="E105">
         <v>2007</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>36</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>555.2739125650571</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>18.51346597222222</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>9.813740347629585</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>-5.795165046133679</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>37.8326605762083</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>21.95242291258295</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>20.79616881766919</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>19.49256351902237</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>19.05034322864094</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>17.98983634515829</v>
       </c>
     </row>
@@ -5565,42 +5882,45 @@
         </is>
       </c>
       <c r="C106">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D106">
+        <v>23</v>
+      </c>
+      <c r="E106">
         <v>2007</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>51</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>357.2144278284762</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>25.09989513888889</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>12.63467925710416</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>-5.793128406846935</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>37.77864729879678</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>21.76604993934648</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>20.80239516503283</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>19.46608319160679</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>18.98712446351932</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>17.93220335359856</v>
       </c>
     </row>
@@ -5616,42 +5936,45 @@
         </is>
       </c>
       <c r="C107">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D107">
+        <v>23</v>
+      </c>
+      <c r="E107">
         <v>2007</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>30</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>282.9421210522584</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>12.43371180555556</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>8.076150317630294</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>-5.838149943088482</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>37.76856040898363</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>20.18357560094685</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>20.21951950765894</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>18.94462917972156</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>18.4903518803776</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>17.44537812795909</v>
       </c>
     </row>
@@ -5667,42 +5990,45 @@
         </is>
       </c>
       <c r="C108">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D108">
+        <v>23</v>
+      </c>
+      <c r="E108">
         <v>2007</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>35</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>580.0313481571296</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>16.08793958333333</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>8.407355302630647</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>-5.826810059652536</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>37.76883319825827</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>21.76604993934648</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>20.56530805201821</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>19.24314929375276</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>18.80546071769828</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>17.75905648524544</v>
       </c>
     </row>
@@ -5718,42 +6044,45 @@
         </is>
       </c>
       <c r="C109">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D109">
+        <v>23</v>
+      </c>
+      <c r="E109">
         <v>2007</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>35</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>240.5008028944196</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>9.159346527777778</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>8.065884242104516</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>-5.82646718600094</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>37.75983117312514</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>21.76604993934648</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>20.10062150833909</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>18.83167465931971</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>18.40407479724912</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>17.33445097088492</v>
       </c>
     </row>
@@ -5769,42 +6098,45 @@
         </is>
       </c>
       <c r="C110">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D110">
+        <v>23</v>
+      </c>
+      <c r="E110">
         <v>2007</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>20</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>79.36526495515848</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>3.681033777777778</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>7.6</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>-5.541723422549534</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>37.73027798813737</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>21.73676860676062</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>19.79999993057812</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>18.49591756865944</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>18.11384404012567</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>17.00499158384073</v>
       </c>
     </row>
@@ -5820,42 +6152,45 @@
         </is>
       </c>
       <c r="C111">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D111">
+        <v>23</v>
+      </c>
+      <c r="E111">
         <v>2007</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>48</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>251.1111324338793</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>6.846668055555555</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>7.674554056380557</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>-6.392468491887895</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>37.66576450314936</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>21.80033644186359</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>19.82142848703934</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>18.57704051114124</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>18.16309016592633</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>17.17923338559715</v>
       </c>
     </row>
@@ -5871,42 +6206,45 @@
         </is>
       </c>
       <c r="C112">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D112">
+        <v>23</v>
+      </c>
+      <c r="E112">
         <v>2007</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>16</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>190.9859317102744</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>1.78640625</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>3.991267681314614</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>-6.324513099136063</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>37.66424157961355</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>21.30861120259945</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>20.51312656168082</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>19.20699695104068</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>18.77363887870519</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>17.68206303396646</v>
       </c>
     </row>
@@ -5922,42 +6260,45 @@
         </is>
       </c>
       <c r="C113">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D113">
+        <v>23</v>
+      </c>
+      <c r="E113">
         <v>2007</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>42</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>396.1189694731617</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>7.2706125</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>8.60028174960434</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>-6.506943716891421</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>37.6321972560226</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>20.32559143666308</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>18.969804620795</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>17.72115244669167</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>17.39427599296491</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>16.40129632679766</v>
       </c>
     </row>
@@ -5973,42 +6314,45 @@
         </is>
       </c>
       <c r="C114">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D114">
+        <v>23</v>
+      </c>
+      <c r="E114">
         <v>2007</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>21</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>190.9859317102744</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>3.160775</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>6.172957795130824</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>-6.348445805326115</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>37.62873948219283</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>20.67965622341503</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>18.52889663897885</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <v>17.34361612621839</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>16.98637841092239</v>
       </c>
-      <c r="O114">
+      <c r="P114">
         <v>16.13557438319377</v>
       </c>
     </row>
@@ -6024,42 +6368,45 @@
         </is>
       </c>
       <c r="C115">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D115">
+        <v>23</v>
+      </c>
+      <c r="E115">
         <v>2002</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>40</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>155.6181665787421</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>10.35272777777778</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>10.34397507499823</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>-5.418088242031425</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>41.76866741795335</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>23.1892620983692</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>21.60758165911618</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>20.73212444842274</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>20.1171155039132</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>19.06892567255551</v>
       </c>
     </row>
@@ -6075,42 +6422,45 @@
         </is>
       </c>
       <c r="C116">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D116">
+        <v>23</v>
+      </c>
+      <c r="E116">
         <v>2002</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>40</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>364.2879808547826</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>15.28965</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>8.065884242104516</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>-5.394048008534433</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>41.76917116773947</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>22.74129078563595</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>21.38572181124168</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>20.4787961295552</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>19.86954333535198</v>
       </c>
-      <c r="O116">
+      <c r="P116">
         <v>18.81966125689125</v>
       </c>
     </row>
@@ -6126,42 +6476,45 @@
         </is>
       </c>
       <c r="C117">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D117">
+        <v>23</v>
+      </c>
+      <c r="E117">
         <v>2002</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>40</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>56.58842421045168</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>3.015519444444445</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>7.875</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>-5.382027662751683</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>41.76942115807644</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>22.74129078563595</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>21.18140512782264</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>20.2419491268869</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>19.68000005083084</v>
       </c>
-      <c r="O117">
+      <c r="P117">
         <v>18.59764094642624</v>
       </c>
     </row>
@@ -6177,42 +6530,45 @@
         </is>
       </c>
       <c r="C118">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D118">
+        <v>23</v>
+      </c>
+      <c r="E118">
         <v>2002</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>30</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>870.0470222356945</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>18.31451041666666</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>8.77809083289371</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>-5.300915147513289</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>41.51890440886447</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>20.60784893789328</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>19.34948106463548</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>18.33726020603738</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>17.95757285142063</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <v>16.88286549371821</v>
       </c>
     </row>
@@ -6228,42 +6584,45 @@
         </is>
       </c>
       <c r="C119">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D119">
+        <v>23</v>
+      </c>
+      <c r="E119">
         <v>2002</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>25</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>1188.356908419485</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>19.89712777777778</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>7.64147106052613</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>-5.512261141825579</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>41.40640524040007</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>22.94264866638445</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>21.26896541232587</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>20.17449659990795</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>19.66568341937986</v>
       </c>
-      <c r="O119">
+      <c r="P119">
         <v>18.5209003925358</v>
       </c>
     </row>
@@ -6279,42 +6638,45 @@
         </is>
       </c>
       <c r="C120">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D120">
+        <v>23</v>
+      </c>
+      <c r="E120">
         <v>2002</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>25</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>254.6479089470325</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>3.175162499999999</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>4.954929658551372</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>-5.487326663303324</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>41.37992848127685</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>22.60220001901368</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>21.02129125220143</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>19.92590096235893</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>19.42105264300248</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <v>18.31558571647953</v>
       </c>
     </row>
@@ -6330,42 +6692,45 @@
         </is>
       </c>
       <c r="C121">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D121">
+        <v>23</v>
+      </c>
+      <c r="E121">
         <v>2002</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>20</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>1018.59163578813</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>11.4236125</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>5.818309886183791</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>-5.900594461532938</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>41.26217482878467</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>34.71080719883706</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>32.72531026339752</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>31.11111113832404</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>30.33776844889331</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <v>28.57047314680025</v>
       </c>
     </row>
@@ -6381,42 +6746,45 @@
         </is>
       </c>
       <c r="C122">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D122">
+        <v>23</v>
+      </c>
+      <c r="E122">
         <v>2005</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>50</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>60.12520072360491</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>2.583767361111111</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>9.205882352941176</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>0.1510044776395046</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>41.17340281985688</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>15.01944259048832</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>14.87801133205736</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>14.15568857728322</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>13.5696499706178</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <v>12.83256879155063</v>
       </c>
     </row>
@@ -6432,42 +6800,45 @@
         </is>
       </c>
       <c r="C123">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D123">
+        <v>23</v>
+      </c>
+      <c r="E123">
         <v>2003</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>30</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>74.27230677621782</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>3.056783333333333</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>6.690476190476191</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>-3.730767995157086</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>41.49457142351775</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>22.24181888923687</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>18.88235303117317</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>17.8537105648201</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>17.21712010646939</v>
       </c>
-      <c r="O123">
+      <c r="P123">
         <v>16.2189560180617</v>
       </c>
     </row>
@@ -6483,42 +6854,45 @@
         </is>
       </c>
       <c r="C124">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D124">
+        <v>23</v>
+      </c>
+      <c r="E124">
         <v>2013</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>55</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>155.6181665787421</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>5.3676875</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>7.006322499189078</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>-3.885824550193091</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>40.55667201923428</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>15.93438438480659</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>15.16655768490173</v>
       </c>
-      <c r="M124">
+      <c r="N124">
         <v>14.46606548723562</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>13.80629236437113</v>
       </c>
-      <c r="O124">
+      <c r="P124">
         <v>13.09025165168378</v>
       </c>
     </row>
@@ -6534,42 +6908,45 @@
         </is>
       </c>
       <c r="C125">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D125">
+        <v>23</v>
+      </c>
+      <c r="E125">
         <v>2012</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>40</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>14.14710605261292</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>0.6588027777777776</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>5.90000009536743</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>-3.968358424760125</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>40.53780351640344</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>15.34340540089305</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>15.00244825491079</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>14.30513839384365</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>13.65612951462201</v>
       </c>
-      <c r="O125">
+      <c r="P125">
         <v>12.94365769661817</v>
       </c>
     </row>
@@ -6585,42 +6962,45 @@
         </is>
       </c>
       <c r="C126">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D126">
+        <v>23</v>
+      </c>
+      <c r="E126">
         <v>2012</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>45</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>75.26260419990074</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>16.07888477777778</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>16.81503759111678</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>-3.684975071017742</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>40.53993024913871</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>16.50331643602514</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>15.79973984727437</v>
       </c>
-      <c r="M126">
+      <c r="N126">
         <v>14.96457252174901</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>14.2953637877962</v>
       </c>
-      <c r="O126">
+      <c r="P126">
         <v>13.56521740585097</v>
       </c>
     </row>
@@ -6636,42 +7016,45 @@
         </is>
       </c>
       <c r="C127">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D127">
+        <v>23</v>
+      </c>
+      <c r="E127">
         <v>2013</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>50</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>5.092958178940651</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>4.145296</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>17.5</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>-4.286043408298083</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>40.48999531756144</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>16.16829097598239</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>14.36105478930591</v>
       </c>
-      <c r="M127">
+      <c r="N127">
         <v>13.57972203215635</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <v>13.00398410821279</v>
       </c>
-      <c r="O127">
+      <c r="P127">
         <v>12.32876717178972</v>
       </c>
     </row>
@@ -6687,42 +7070,45 @@
         </is>
       </c>
       <c r="C128">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D128">
+        <v>23</v>
+      </c>
+      <c r="E128">
         <v>2013</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>70</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>204.2842113997305</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>13.80912227777778</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>11.23548205562016</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>-4.297046059093867</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>40.45353230017805</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>14.13414776444288</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>13.60291677037388</v>
       </c>
-      <c r="M128">
+      <c r="N128">
         <v>12.89908550864703</v>
       </c>
-      <c r="N128">
+      <c r="O128">
         <v>12.31539425566554</v>
       </c>
-      <c r="O128">
+      <c r="P128">
         <v>11.70463231665745</v>
       </c>
     </row>
@@ -6738,42 +7124,45 @@
         </is>
       </c>
       <c r="C129">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D129">
+        <v>23</v>
+      </c>
+      <c r="E129">
         <v>2012</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>55</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>10.1859163578813</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>7.329796</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>15.3499999046326</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>-3.989871267537552</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>40.36661052558657</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>14.46314793297675</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>13.78828766939829</v>
       </c>
-      <c r="M129">
+      <c r="N129">
         <v>13.14259344427002</v>
       </c>
-      <c r="N129">
+      <c r="O129">
         <v>12.46472526667553</v>
       </c>
-      <c r="O129">
+      <c r="P129">
         <v>11.83098595025544</v>
       </c>
     </row>
@@ -6789,42 +7178,45 @@
         </is>
       </c>
       <c r="C130">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D130">
+        <v>23</v>
+      </c>
+      <c r="E130">
         <v>2012</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>40</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>45.97809467099199</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>2.433492361111111</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>5.823077055124134</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>-4.310092305559151</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>40.5168223857465</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>17.35421937502889</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <v>17.00620017714792</v>
       </c>
-      <c r="M130">
+      <c r="N130">
         <v>15.97535931423884</v>
       </c>
-      <c r="N130">
+      <c r="O130">
         <v>15.28000012143453</v>
       </c>
-      <c r="O130">
+      <c r="P130">
         <v>14.52179567044197</v>
       </c>
     </row>
@@ -6840,42 +7232,45 @@
         </is>
       </c>
       <c r="C131">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D131">
+        <v>23</v>
+      </c>
+      <c r="E131">
         <v>2019</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>30</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>502.2222648677586</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>11.29254722222222</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>9.04500773889592</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>-4.30864958075774</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>42.163063900638</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <v>19.84668220891187</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <v>18.9978213380163</v>
       </c>
-      <c r="M131">
+      <c r="N131">
         <v>18.10518855787633</v>
       </c>
-      <c r="N131">
+      <c r="O131">
         <v>17.37443717214648</v>
       </c>
-      <c r="O131">
+      <c r="P131">
         <v>16.52780142380267</v>
       </c>
     </row>
@@ -6891,42 +7286,45 @@
         </is>
       </c>
       <c r="C132">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D132">
+        <v>23</v>
+      </c>
+      <c r="E132">
         <v>2019</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>31</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>923.0986699329929</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>10.27129375</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>5.054647856830726</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>-4.453454697979145</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>42.14330874420797</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <v>19.46192299241349</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <v>18.79019066448793</v>
       </c>
-      <c r="M132">
+      <c r="N132">
         <v>17.94789993903837</v>
       </c>
-      <c r="N132">
+      <c r="O132">
         <v>17.30029443981634</v>
       </c>
-      <c r="O132">
+      <c r="P132">
         <v>16.46578135680387</v>
       </c>
     </row>
@@ -6942,42 +7340,45 @@
         </is>
       </c>
       <c r="C133">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D133">
+        <v>23</v>
+      </c>
+      <c r="E133">
         <v>2019</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>10</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>413.8028520389279</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>4.22614375</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>5.291267533830879</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>-4.494664120569388</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>41.83657223080521</v>
       </c>
-      <c r="K133">
+      <c r="L133">
         <v>17.73356603981001</v>
       </c>
-      <c r="L133">
+      <c r="M133">
         <v>17.44908900827654</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>16.48122387122001</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>15.94562435270825</v>
       </c>
-      <c r="O133">
+      <c r="P133">
         <v>15.10741047326285</v>
       </c>
     </row>
@@ -6993,42 +7394,45 @@
         </is>
       </c>
       <c r="C134">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D134">
+        <v>23</v>
+      </c>
+      <c r="E134">
         <v>2019</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>30</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>254.6479089470325</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>5.37800625</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>5.559154886677346</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>-4.39375653029008</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>42.18007310174326</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>19.45203729367923</v>
       </c>
-      <c r="L134">
+      <c r="M134">
         <v>18.72958262778449</v>
       </c>
-      <c r="M134">
+      <c r="N134">
         <v>17.88318592560432</v>
       </c>
-      <c r="N134">
+      <c r="O134">
         <v>17.23779847650372</v>
       </c>
-      <c r="O134">
+      <c r="P134">
         <v>16.41933293880292</v>
       </c>
     </row>
@@ -7044,42 +7448,45 @@
         </is>
       </c>
       <c r="C135">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D135">
+        <v>23</v>
+      </c>
+      <c r="E135">
         <v>2019</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>20</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>254.6479089470325</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>3.968131249999999</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>4.754647969659824</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>-4.285722705053639</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>42.22637322193948</v>
       </c>
-      <c r="K135">
+      <c r="L135">
         <v>19.82885998713979</v>
       </c>
-      <c r="L135">
+      <c r="M135">
         <v>18.50125491387121</v>
       </c>
-      <c r="M135">
+      <c r="N135">
         <v>17.72178474733017</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <v>16.97550957505993</v>
       </c>
-      <c r="O135">
+      <c r="P135">
         <v>16.2314938952941</v>
       </c>
     </row>
@@ -7095,42 +7502,45 @@
         </is>
       </c>
       <c r="C136">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D136">
+        <v>23</v>
+      </c>
+      <c r="E136">
         <v>2019</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>13</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>604.7887837492023</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>6.01723125</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>5.159154943091895</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>-5.432368786888369</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>41.79352805500353</v>
       </c>
-      <c r="K136">
+      <c r="L136">
         <v>23.10367682954303</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <v>21.78384055998735</v>
       </c>
-      <c r="M136">
+      <c r="N136">
         <v>20.82509384445002</v>
       </c>
-      <c r="N136">
+      <c r="O136">
         <v>20.21684744919213</v>
       </c>
-      <c r="O136">
+      <c r="P136">
         <v>19.17008361621106</v>
       </c>
     </row>
@@ -7146,42 +7556,45 @@
         </is>
       </c>
       <c r="C137">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D137">
+        <v>23</v>
+      </c>
+      <c r="E137">
         <v>2019</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>40</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>10.1859163578813</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>4.504931999999999</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>16.30000019073485</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>-4.688375413345382</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>40.95121536055913</v>
       </c>
-      <c r="K137">
+      <c r="L137">
         <v>16.42707883422054</v>
       </c>
-      <c r="L137">
+      <c r="M137">
         <v>15.69934411546448</v>
       </c>
-      <c r="M137">
+      <c r="N137">
         <v>14.8687146686108</v>
       </c>
-      <c r="N137">
+      <c r="O137">
         <v>14.24749170412035</v>
       </c>
-      <c r="O137">
+      <c r="P137">
         <v>13.36599711855473</v>
       </c>
     </row>
@@ -7197,42 +7610,45 @@
         </is>
       </c>
       <c r="C138">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D138">
+        <v>23</v>
+      </c>
+      <c r="E138">
         <v>2019</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>25</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>168.0676199050415</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>21.02995311111111</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>13.95876809956562</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>-4.684262381396782</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>40.78913848944828</v>
       </c>
-      <c r="K138">
+      <c r="L138">
         <v>16.12141464708625</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <v>15.14542560250499</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>14.32958027253007</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <v>13.75643805330436</v>
       </c>
-      <c r="O138">
+      <c r="P138">
         <v>12.90029232117567</v>
       </c>
     </row>
@@ -7248,42 +7664,45 @@
         </is>
       </c>
       <c r="C139">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D139">
+        <v>23</v>
+      </c>
+      <c r="E139">
         <v>2019</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>15</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>891.2676813146138</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>11.16208125</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>5.481971859122305</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>-4.943035161074994</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>41.12734762728351</v>
       </c>
-      <c r="K139">
+      <c r="L139">
         <v>16.82570308889573</v>
       </c>
-      <c r="L139">
+      <c r="M139">
         <v>16.0615061424852</v>
       </c>
-      <c r="M139">
+      <c r="N139">
         <v>15.29491520170164</v>
       </c>
-      <c r="N139">
+      <c r="O139">
         <v>14.67526031299779</v>
       </c>
-      <c r="O139">
+      <c r="P139">
         <v>13.81630021512679</v>
       </c>
     </row>
@@ -7299,42 +7718,45 @@
         </is>
       </c>
       <c r="C140">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D140">
+        <v>23</v>
+      </c>
+      <c r="E140">
         <v>2019</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>20</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>254.6479089470325</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>1.7509</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>3.20000004768372</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>-4.816891717267893</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>40.43581821169023</v>
       </c>
-      <c r="K140">
+      <c r="L140">
         <v>18.38507066730244</v>
       </c>
-      <c r="L140">
+      <c r="M140">
         <v>17.35809027715498</v>
       </c>
-      <c r="M140">
+      <c r="N140">
         <v>16.3664330410107</v>
       </c>
-      <c r="N140">
+      <c r="O140">
         <v>15.58441555595767</v>
       </c>
-      <c r="O140">
+      <c r="P140">
         <v>14.71458765568624</v>
       </c>
     </row>
@@ -7350,42 +7772,45 @@
         </is>
       </c>
       <c r="C141">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D141">
+        <v>23</v>
+      </c>
+      <c r="E141">
         <v>2019</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>5</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>159.1549430918953</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>1.129525</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>4.309295815744941</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>-4.689529631289439</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>40.99646093976768</v>
       </c>
-      <c r="K141">
+      <c r="L141">
         <v>16.408980383193</v>
       </c>
-      <c r="L141">
+      <c r="M141">
         <v>15.95449704017991</v>
       </c>
-      <c r="M141">
+      <c r="N141">
         <v>15.11355815275033</v>
       </c>
-      <c r="N141">
+      <c r="O141">
         <v>14.52716300748505</v>
       </c>
-      <c r="O141">
+      <c r="P141">
         <v>13.59528494234785</v>
       </c>
     </row>
@@ -7401,42 +7826,45 @@
         </is>
       </c>
       <c r="C142">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D142">
+        <v>23</v>
+      </c>
+      <c r="E142">
         <v>2018</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>13</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>254.6479089470325</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>1.304725</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>3</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>-3.602568602174087</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>41.76355874476637</v>
       </c>
-      <c r="K142">
+      <c r="L142">
         <v>17.58579335709714</v>
       </c>
-      <c r="L142">
+      <c r="M142">
         <v>16.08938539432421</v>
       </c>
-      <c r="M142">
+      <c r="N142">
         <v>15.33076657974629</v>
       </c>
-      <c r="N142">
+      <c r="O142">
         <v>14.65961431171712</v>
       </c>
-      <c r="O142">
+      <c r="P142">
         <v>13.85154297862671</v>
       </c>
     </row>
@@ -7452,42 +7880,45 @@
         </is>
       </c>
       <c r="C143">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D143">
+        <v>23</v>
+      </c>
+      <c r="E143">
         <v>2018</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>25</v>
       </c>
-      <c r="F143">
-        <v>31.83098861837907</v>
-      </c>
       <c r="G143">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H143">
         <v>0.7439062499999999</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>5.30000019073486</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>-4.104629461668062</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>42.2642747897621</v>
       </c>
-      <c r="K143">
+      <c r="L143">
         <v>21.20386473081858</v>
       </c>
-      <c r="L143">
+      <c r="M143">
         <v>20.51995607785339</v>
       </c>
-      <c r="M143">
+      <c r="N143">
         <v>19.50348286942295</v>
       </c>
-      <c r="N143">
+      <c r="O143">
         <v>18.77750627978658</v>
       </c>
-      <c r="O143">
+      <c r="P143">
         <v>17.90430460203475</v>
       </c>
     </row>
@@ -7503,42 +7934,45 @@
         </is>
       </c>
       <c r="C144">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D144">
+        <v>23</v>
+      </c>
+      <c r="E144">
         <v>2018</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>13</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>286.4788975654116</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>2.25225</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>3.618309914391061</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>-3.97183439583554</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>42.30150034165271</v>
       </c>
-      <c r="K144">
+      <c r="L144">
         <v>22.24391300486116</v>
       </c>
-      <c r="L144">
+      <c r="M144">
         <v>21.53279312696801</v>
       </c>
-      <c r="M144">
+      <c r="N144">
         <v>20.4493978963334</v>
       </c>
-      <c r="N144">
+      <c r="O144">
         <v>19.70117771839086</v>
       </c>
-      <c r="O144">
+      <c r="P144">
         <v>18.79917183994354</v>
       </c>
     </row>
